--- a/biology/Médecine/Hôpital_régional_du_nord_de_l'Estonie/Hôpital_régional_du_nord_de_l'Estonie.xlsx
+++ b/biology/Médecine/Hôpital_régional_du_nord_de_l'Estonie/Hôpital_régional_du_nord_de_l'Estonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_du_nord_de_l%27Estonie</t>
+          <t>Hôpital_régional_du_nord_de_l'Estonie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital régional du nord de l'Estonie (estonien : Põhja-Eesti Regionaalhaigla, en abrégé PERH) est un hôpital basé dans le quartier de Mustamäe à Tallinn en Estonie[1].
+L'hôpital régional du nord de l'Estonie (estonien : Põhja-Eesti Regionaalhaigla, en abrégé PERH) est un hôpital basé dans le quartier de Mustamäe à Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_du_nord_de_l%27Estonie</t>
+          <t>Hôpital_régional_du_nord_de_l'Estonie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital régional du nord de l'Estonie a été fondé le 25 juillet 2001[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital régional du nord de l'Estonie a été fondé le 25 juillet 2001.
 Le centre comprend 7 cliniques et 32 centres spécialisés.
-Au total, plus de 4 800 personnes y travaillent[1].
+Au total, plus de 4 800 personnes y travaillent.
 Chaque année, environ 144 000 patients reçoivent des soins médicaux spécialisés.
-En un an, environ 84 000 patients sont traités par la médecine d'urgence[1].
+En un an, environ 84 000 patients sont traités par la médecine d'urgence.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_du_nord_de_l%27Estonie</t>
+          <t>Hôpital_régional_du_nord_de_l'Estonie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le  PERH est devenu le plus grand établissement de traitement d'Estonie, proposant des services de traitement dans toutes les spécialités médicales, à l'exception de l'obstétrique.
 ses services sont:
@@ -611,7 +627,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_r%C3%A9gional_du_nord_de_l%27Estonie</t>
+          <t>Hôpital_régional_du_nord_de_l'Estonie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,7 +645,9 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les sites de l'hôpital régional sont:
 Centre de Mustamäe - Juhan Sütiste tee 19, Tallinn
